--- a/BOM/GENESIS2PCE v3.xlsx
+++ b/BOM/GENESIS2PCE v3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Documents\Atmel Studio\7.0\GENESIS2PCE\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA0C490-9E33-45A9-BBDE-C1B62EC8788A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF541EFE-6BD6-47FE-93D4-DA0DD1318140}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{08164A21-8C7A-44E1-9D5E-E4325255E970}"/>
   </bookViews>
@@ -300,9 +300,6 @@
     <t>R8, R9, R10, R11, R12, R13, R14</t>
   </si>
   <si>
-    <t>Turbo I, II, III, IV, V, Vi, Turbo Speed</t>
-  </si>
-  <si>
     <t>LED1</t>
   </si>
   <si>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>https://mouser.com/ProductDetail/Microchip-Technology-Atmel/ATMEGA328P-PU?qs=K8BHR703ZXguOQv3sKbWcg%3D%3D</t>
+  </si>
+  <si>
+    <t>Turbo I, II, III, IV, V, VI, Turbo Speed</t>
   </si>
 </sst>
 </file>
@@ -746,7 +746,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="A1:H18"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,33 +893,33 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>23</v>
@@ -1205,28 +1205,28 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
